--- a/regresiones.xlsx
+++ b/regresiones.xlsx
@@ -14,9 +14,11 @@
   <sheets>
     <sheet name="Regresiones principales" sheetId="1" r:id="rId1"/>
     <sheet name="empresas chicas" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="empresasMedianas" sheetId="3" r:id="rId3"/>
+    <sheet name="empresasGrandes" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="305">
   <si>
     <t>Ejecuciones 6 Meses</t>
   </si>
@@ -629,6 +631,321 @@
   </si>
   <si>
     <t>( 0.001311  )</t>
+  </si>
+  <si>
+    <t>Empleados Totales</t>
+  </si>
+  <si>
+    <t>Obreros Totales</t>
+  </si>
+  <si>
+    <t>( 0.0009870 )</t>
+  </si>
+  <si>
+    <t>( 0.0007995 )+</t>
+  </si>
+  <si>
+    <t>Total de horas trabajadas por Obreros</t>
+  </si>
+  <si>
+    <t>Total de horas trabajadas por Empleados</t>
+  </si>
+  <si>
+    <t>( 0.0002798  )</t>
+  </si>
+  <si>
+    <t>( 0.083109 )</t>
+  </si>
+  <si>
+    <t>( 0.03928  )</t>
+  </si>
+  <si>
+    <t>Total de salario percibido por obreros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de salario percibido por empleados </t>
+  </si>
+  <si>
+    <t>(  0.03862  )</t>
+  </si>
+  <si>
+    <t>( 3.039  )</t>
+  </si>
+  <si>
+    <t>( 0.004022  )</t>
+  </si>
+  <si>
+    <t>( 0.0031125 )</t>
+  </si>
+  <si>
+    <t>( 0.001196 )</t>
+  </si>
+  <si>
+    <t>( 0.0009002 )</t>
+  </si>
+  <si>
+    <t>( 7.143e-04 )</t>
+  </si>
+  <si>
+    <t>( 0.0002547 )</t>
+  </si>
+  <si>
+    <t>( 0.07543  )</t>
+  </si>
+  <si>
+    <t>(  0.03771  )</t>
+  </si>
+  <si>
+    <t>( 0.03239 )</t>
+  </si>
+  <si>
+    <t>( 14.489 )</t>
+  </si>
+  <si>
+    <t>(  3.017 )</t>
+  </si>
+  <si>
+    <t>( 14.477   )</t>
+  </si>
+  <si>
+    <t>( 2.767 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9396 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9499 </t>
+  </si>
+  <si>
+    <t>R2: 0.9285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9247 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9415 </t>
+  </si>
+  <si>
+    <t>R2: 0.8852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.8651 </t>
+  </si>
+  <si>
+    <t>R2: 0.8501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.8977 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9223 </t>
+  </si>
+  <si>
+    <t>R2: 0.9406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9394 </t>
+  </si>
+  <si>
+    <t>R2: 0.9511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9282 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9255 </t>
+  </si>
+  <si>
+    <t>R2: 0.9433</t>
+  </si>
+  <si>
+    <t>R2: 0.8898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.8705 </t>
+  </si>
+  <si>
+    <t>R2: 0.8591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.8981 </t>
+  </si>
+  <si>
+    <t>R2: 0.9445</t>
+  </si>
+  <si>
+    <t>R2: 0.9464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9549 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9332 </t>
+  </si>
+  <si>
+    <t>R2: 0.9333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9482 </t>
+  </si>
+  <si>
+    <t>R2: 0.9042</t>
+  </si>
+  <si>
+    <t>R2: 0.8789</t>
+  </si>
+  <si>
+    <t>R2:  0.8901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.8822 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9151 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.8798 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.926 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002563 </t>
+  </si>
+  <si>
+    <t>0.000227</t>
+  </si>
+  <si>
+    <t>0.000907*</t>
+  </si>
+  <si>
+    <t>-0.11801+</t>
+  </si>
+  <si>
+    <t>-0.003575</t>
+  </si>
+  <si>
+    <t>DF: 40195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6237 </t>
+  </si>
+  <si>
+    <t>2.282</t>
+  </si>
+  <si>
+    <t>2.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.001047</t>
+  </si>
+  <si>
+    <t>-0.0002284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.375</t>
+  </si>
+  <si>
+    <t>5.126+</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>0.0004591</t>
+  </si>
+  <si>
+    <t>0.002116+</t>
+  </si>
+  <si>
+    <t>0.0004323+</t>
+  </si>
+  <si>
+    <t>-0.12774+</t>
+  </si>
+  <si>
+    <t>-2.856</t>
+  </si>
+  <si>
+    <t>DF: 67, 068</t>
+  </si>
+  <si>
+    <t>DF: 35,270</t>
+  </si>
+  <si>
+    <t>R2: 0.9499</t>
+  </si>
+  <si>
+    <t>R2: 0.9247</t>
+  </si>
+  <si>
+    <t>R2: 0.9415</t>
+  </si>
+  <si>
+    <t>R2: 0.8651</t>
+  </si>
+  <si>
+    <t>R2: 0.9014</t>
+  </si>
+  <si>
+    <t>R2: 0.9141</t>
+  </si>
+  <si>
+    <t>R2: 0.8977</t>
+  </si>
+  <si>
+    <t>R2: 0.9223</t>
+  </si>
+  <si>
+    <t>R2: 0.8705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9433 </t>
+  </si>
+  <si>
+    <t>R2: 0.9255</t>
+  </si>
+  <si>
+    <t>R2: 0.9022</t>
+  </si>
+  <si>
+    <t>R2: 0.9115</t>
+  </si>
+  <si>
+    <t>R2: 0.8981</t>
+  </si>
+  <si>
+    <t>R2: 0.9332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2: 0.9333 </t>
+  </si>
+  <si>
+    <t>R2: 0.9482</t>
+  </si>
+  <si>
+    <t>R2: 0.8901</t>
+  </si>
+  <si>
+    <t>R2: 0.8822</t>
+  </si>
+  <si>
+    <t>R2: 0.9151</t>
+  </si>
+  <si>
+    <t>R2: 0.8798</t>
+  </si>
+  <si>
+    <t>R2: 0.926</t>
   </si>
 </sst>
 </file>
@@ -660,12 +977,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -814,16 +1137,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -832,16 +1173,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,19 +1182,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,712 +1492,712 @@
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>6.4110000000000002E-4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <v>2.6779999999999998E-3</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="16"/>
+      <c r="G31" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="16"/>
+      <c r="G34" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="18"/>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I47" s="12"/>
+      <c r="I47" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -1878,34 +2210,38 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -1913,11 +2249,15 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="G33:H33"/>
@@ -1930,26 +2270,16 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C2:D2"/>
@@ -1963,6 +2293,8 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1974,7 +2306,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G40" sqref="G40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,681 +2317,2454 @@
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>100</v>
+      <c r="H5" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>100</v>
+      <c r="H8" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>100</v>
+      <c r="H11" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>100</v>
+      <c r="H14" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>100</v>
+      <c r="H17" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>100</v>
+      <c r="H20" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>100</v>
+      <c r="H23" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>100</v>
+      <c r="H26" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>100</v>
+      <c r="H29" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K32" s="12"/>
+      <c r="H32" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>100</v>
+      <c r="H35" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="F38" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>100</v>
+      <c r="H38" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="18"/>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>100</v>
+      <c r="H41" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="95">
     <mergeCell ref="B42:H42"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="22" t="str">
+        <f>CONCATENATE("( ",I4," )")</f>
+        <v>( 0.006996 )</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22" t="str">
+        <f>CONCATENATE("( ",J4," )")</f>
+        <v>( 0.004408 )</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22" t="str">
+        <f>CONCATENATE("( ",K4," )")</f>
+        <v>( 0.004022 )</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24">
+        <v>6.9959999999999996E-3</v>
+      </c>
+      <c r="J4" s="24">
+        <v>4.4079999999999996E-3</v>
+      </c>
+      <c r="K4" s="24">
+        <v>4.0220000000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="22" t="str">
+        <f>CONCATENATE("( ",I7," )")</f>
+        <v>( 0.005621 )</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="str">
+        <f>CONCATENATE("( ",J7," )")</f>
+        <v>( 0.003513 )</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22" t="str">
+        <f>CONCATENATE("( ",K7," )")</f>
+        <v>( 0.0031125 )</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24">
+        <v>5.6210000000000001E-3</v>
+      </c>
+      <c r="J7" s="24">
+        <v>3.5130000000000001E-3</v>
+      </c>
+      <c r="K7" s="24">
+        <v>3.1124999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="22" t="str">
+        <f>CONCATENATE("( ",I10," )")</f>
+        <v>( 0.002122 )</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="str">
+        <f>CONCATENATE("( ",J10," )")</f>
+        <v>( 0.001311 )</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22" t="str">
+        <f>CONCATENATE("( ",K10," )")</f>
+        <v>( 0.001196 )</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24">
+        <v>2.1220000000000002E-3</v>
+      </c>
+      <c r="J10" s="24">
+        <v>1.3110000000000001E-3</v>
+      </c>
+      <c r="K10" s="24">
+        <v>1.196E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="22" t="str">
+        <f>CONCATENATE("( ",I13," )")</f>
+        <v>( 0.00158 )</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="str">
+        <f>CONCATENATE("( ",J13," )")</f>
+        <v>( 0.000987 )</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22" t="str">
+        <f>CONCATENATE("( ",K13," )")</f>
+        <v>( 0.0009002 )</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24">
+        <v>1.58E-3</v>
+      </c>
+      <c r="J13" s="24">
+        <v>9.8700000000000003E-4</v>
+      </c>
+      <c r="K13" s="24">
+        <v>9.0019999999999998E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="22" t="str">
+        <f>CONCATENATE("( ",I16," )")</f>
+        <v>( 0.0012905 )</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="str">
+        <f>CONCATENATE("( ",J16," )")</f>
+        <v>( 0.0007995 )</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22" t="str">
+        <f>CONCATENATE("( ",K16," )")</f>
+        <v>( 0.0007143 )</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24">
+        <v>1.2905E-3</v>
+      </c>
+      <c r="J16" s="24">
+        <v>7.9949999999999997E-4</v>
+      </c>
+      <c r="K16" s="25">
+        <v>7.1429999999999996E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="22" t="str">
+        <f>CONCATENATE("( ",I19," )")</f>
+        <v>( 0.0004563 )</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22" t="str">
+        <f>CONCATENATE("( ",J19," )")</f>
+        <v>( 0.0002798 )</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22" t="str">
+        <f>CONCATENATE("( ",K19," )")</f>
+        <v>( 0.0002547 )</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24">
+        <v>4.5629999999999998E-4</v>
+      </c>
+      <c r="J19" s="24">
+        <v>2.7980000000000002E-4</v>
+      </c>
+      <c r="K19" s="24">
+        <v>2.5470000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="22" t="str">
+        <f>CONCATENATE("( ",I22," )")</f>
+        <v>( 0.1329 )</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22" t="str">
+        <f>CONCATENATE("( ",J22," )")</f>
+        <v>( 0.083109 )</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22" t="str">
+        <f>CONCATENATE("( ",K22," )")</f>
+        <v>( 0.07543 )</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="J22" s="24">
+        <v>8.3109000000000002E-2</v>
+      </c>
+      <c r="K22" s="24">
+        <v>7.5429999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="22" t="str">
+        <f>CONCATENATE("( ",I25," )")</f>
+        <v>( 0.06202 )</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="str">
+        <f>CONCATENATE("( ",J25," )")</f>
+        <v>( 0.03928 )</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22" t="str">
+        <f>CONCATENATE("( ",K25," )")</f>
+        <v>( 0.03771 )</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24">
+        <v>6.2019999999999999E-2</v>
+      </c>
+      <c r="J25" s="24">
+        <v>3.9280000000000002E-2</v>
+      </c>
+      <c r="K25" s="24">
+        <v>3.771E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="22" t="str">
+        <f>CONCATENATE("( ",I28," )")</f>
+        <v>( 0.063309 )</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22" t="str">
+        <f>CONCATENATE("( ",J28," )")</f>
+        <v>( 0.03862 )</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22" t="str">
+        <f>CONCATENATE("( ",K28," )")</f>
+        <v>( 0.03239 )</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24">
+        <v>6.3309000000000004E-2</v>
+      </c>
+      <c r="J28" s="24">
+        <v>3.8620000000000002E-2</v>
+      </c>
+      <c r="K28" s="24">
+        <v>3.2390000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="22" t="str">
+        <f>CONCATENATE("( ",I31," )")</f>
+        <v>( 19.9542 )</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22" t="str">
+        <f>CONCATENATE("( ",J31," )")</f>
+        <v>( 13.126 )</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22" t="str">
+        <f>CONCATENATE("( ",K31," )")</f>
+        <v>( 14.489 )</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24">
+        <v>19.9542</v>
+      </c>
+      <c r="J31" s="24">
+        <v>13.125999999999999</v>
+      </c>
+      <c r="K31" s="24">
+        <v>14.489000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="22" t="str">
+        <f>CONCATENATE("( ",I34," )")</f>
+        <v>( 4.475 )</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22" t="str">
+        <f>CONCATENATE("( ",J34," )")</f>
+        <v>( 3.039 )</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22" t="str">
+        <f>CONCATENATE("( ",K34," )")</f>
+        <v>( 3.017 )</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="J34" s="24">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="K34" s="24">
+        <v>3.0169999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="22" t="str">
+        <f>CONCATENATE("( ",I37," )")</f>
+        <v>( 20.2102 )</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22" t="str">
+        <f>CONCATENATE("( ",J37," )")</f>
+        <v>( 13.3 )</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22" t="str">
+        <f>CONCATENATE("( ",K37," )")</f>
+        <v>( 14.477 )</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24">
+        <v>20.2102</v>
+      </c>
+      <c r="J37" s="24">
+        <v>13.3</v>
+      </c>
+      <c r="K37" s="24">
+        <v>14.477</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="22" t="str">
+        <f>CONCATENATE("( ",I40," )")</f>
+        <v>( 4.196 )</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22" t="str">
+        <f>CONCATENATE("( ",J40," )")</f>
+        <v>( 2.848 )</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22" t="str">
+        <f>CONCATENATE("( ",K40," )")</f>
+        <v>( 2.767 )</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="J40" s="24">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="K40" s="24">
+        <v>2.7669999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="22" t="str">
+        <f>CONCATENATE("( ",I4," )")</f>
+        <v>( 0.006996 )</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22" t="str">
+        <f>CONCATENATE("( ",J4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22" t="str">
+        <f>CONCATENATE("( ",K4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24">
+        <v>6.9959999999999996E-3</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="22" t="str">
+        <f>CONCATENATE("( ",I7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="str">
+        <f>CONCATENATE("( ",J7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22" t="str">
+        <f>CONCATENATE("( ",K7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="22" t="str">
+        <f>CONCATENATE("( ",I10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="str">
+        <f>CONCATENATE("( ",J10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22" t="str">
+        <f>CONCATENATE("( ",K10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="22" t="str">
+        <f>CONCATENATE("( ",I13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="str">
+        <f>CONCATENATE("( ",J13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22" t="str">
+        <f>CONCATENATE("( ",K13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="22" t="str">
+        <f>CONCATENATE("( ",I16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="str">
+        <f>CONCATENATE("( ",J16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22" t="str">
+        <f>CONCATENATE("( ",K16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="22" t="str">
+        <f>CONCATENATE("( ",I19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22" t="str">
+        <f>CONCATENATE("( ",J19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22" t="str">
+        <f>CONCATENATE("( ",K19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="22" t="str">
+        <f>CONCATENATE("( ",I22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22" t="str">
+        <f>CONCATENATE("( ",J22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22" t="str">
+        <f>CONCATENATE("( ",K22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="22" t="str">
+        <f>CONCATENATE("( ",I25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="str">
+        <f>CONCATENATE("( ",J25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22" t="str">
+        <f>CONCATENATE("( ",K25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="22" t="str">
+        <f>CONCATENATE("( ",I28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22" t="str">
+        <f>CONCATENATE("( ",J28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22" t="str">
+        <f>CONCATENATE("( ",K28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="22" t="str">
+        <f>CONCATENATE("( ",I31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22" t="str">
+        <f>CONCATENATE("( ",J31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22" t="str">
+        <f>CONCATENATE("( ",K31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="22" t="str">
+        <f>CONCATENATE("( ",I34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22" t="str">
+        <f>CONCATENATE("( ",J34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22" t="str">
+        <f>CONCATENATE("( ",K34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="22" t="str">
+        <f>CONCATENATE("( ",I37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22" t="str">
+        <f>CONCATENATE("( ",J37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22" t="str">
+        <f>CONCATENATE("( ",K37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="22" t="str">
+        <f>CONCATENATE("( ",I40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22" t="str">
+        <f>CONCATENATE("( ",J40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22" t="str">
+        <f>CONCATENATE("( ",K40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:D39"/>
@@ -2756,42 +4861,2231 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="22" t="str">
+        <f>CONCATENATE("( ",I4," )")</f>
+        <v>( 0.006996 )</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22" t="str">
+        <f>CONCATENATE("( ",J4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22" t="str">
+        <f>CONCATENATE("( ",K4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24">
+        <v>6.9959999999999996E-3</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="22" t="str">
+        <f>CONCATENATE("( ",I7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="str">
+        <f>CONCATENATE("( ",J7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22" t="str">
+        <f>CONCATENATE("( ",K7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="22" t="str">
+        <f>CONCATENATE("( ",I10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="str">
+        <f>CONCATENATE("( ",J10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22" t="str">
+        <f>CONCATENATE("( ",K10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="22" t="str">
+        <f>CONCATENATE("( ",I13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="str">
+        <f>CONCATENATE("( ",J13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22" t="str">
+        <f>CONCATENATE("( ",K13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="22" t="str">
+        <f>CONCATENATE("( ",I16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="str">
+        <f>CONCATENATE("( ",J16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22" t="str">
+        <f>CONCATENATE("( ",K16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="22" t="str">
+        <f>CONCATENATE("( ",I19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22" t="str">
+        <f>CONCATENATE("( ",J19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22" t="str">
+        <f>CONCATENATE("( ",K19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="22" t="str">
+        <f>CONCATENATE("( ",I22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22" t="str">
+        <f>CONCATENATE("( ",J22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22" t="str">
+        <f>CONCATENATE("( ",K22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="22" t="str">
+        <f>CONCATENATE("( ",I25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="str">
+        <f>CONCATENATE("( ",J25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22" t="str">
+        <f>CONCATENATE("( ",K25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="22" t="str">
+        <f>CONCATENATE("( ",I28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22" t="str">
+        <f>CONCATENATE("( ",J28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22" t="str">
+        <f>CONCATENATE("( ",K28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="22" t="str">
+        <f>CONCATENATE("( ",I31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22" t="str">
+        <f>CONCATENATE("( ",J31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22" t="str">
+        <f>CONCATENATE("( ",K31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="22" t="str">
+        <f>CONCATENATE("( ",I34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22" t="str">
+        <f>CONCATENATE("( ",J34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22" t="str">
+        <f>CONCATENATE("( ",K34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="22" t="str">
+        <f>CONCATENATE("( ",I37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22" t="str">
+        <f>CONCATENATE("( ",J37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22" t="str">
+        <f>CONCATENATE("( ",K37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="22" t="str">
+        <f>CONCATENATE("( ",I40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22" t="str">
+        <f>CONCATENATE("( ",J40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22" t="str">
+        <f>CONCATENATE("( ",K40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="22" t="str">
+        <f>CONCATENATE("( ",I4," )")</f>
+        <v>( 0.006996 )</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22" t="str">
+        <f>CONCATENATE("( ",J4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22" t="str">
+        <f>CONCATENATE("( ",K4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24">
+        <v>6.9959999999999996E-3</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="22" t="str">
+        <f>CONCATENATE("( ",I7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="str">
+        <f>CONCATENATE("( ",J7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22" t="str">
+        <f>CONCATENATE("( ",K7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="22" t="str">
+        <f>CONCATENATE("( ",I10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="str">
+        <f>CONCATENATE("( ",J10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22" t="str">
+        <f>CONCATENATE("( ",K10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="22" t="str">
+        <f>CONCATENATE("( ",I13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="str">
+        <f>CONCATENATE("( ",J13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22" t="str">
+        <f>CONCATENATE("( ",K13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="22" t="str">
+        <f>CONCATENATE("( ",I16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="str">
+        <f>CONCATENATE("( ",J16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22" t="str">
+        <f>CONCATENATE("( ",K16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="22" t="str">
+        <f>CONCATENATE("( ",I19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22" t="str">
+        <f>CONCATENATE("( ",J19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22" t="str">
+        <f>CONCATENATE("( ",K19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="22" t="str">
+        <f>CONCATENATE("( ",I22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22" t="str">
+        <f>CONCATENATE("( ",J22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22" t="str">
+        <f>CONCATENATE("( ",K22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="22" t="str">
+        <f>CONCATENATE("( ",I25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="str">
+        <f>CONCATENATE("( ",J25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22" t="str">
+        <f>CONCATENATE("( ",K25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="22" t="str">
+        <f>CONCATENATE("( ",I28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22" t="str">
+        <f>CONCATENATE("( ",J28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22" t="str">
+        <f>CONCATENATE("( ",K28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="22" t="str">
+        <f>CONCATENATE("( ",I31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22" t="str">
+        <f>CONCATENATE("( ",J31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22" t="str">
+        <f>CONCATENATE("( ",K31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="22" t="str">
+        <f>CONCATENATE("( ",I34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22" t="str">
+        <f>CONCATENATE("( ",J34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22" t="str">
+        <f>CONCATENATE("( ",K34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="22" t="str">
+        <f>CONCATENATE("( ",I37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22" t="str">
+        <f>CONCATENATE("( ",J37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22" t="str">
+        <f>CONCATENATE("( ",K37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="22" t="str">
+        <f>CONCATENATE("( ",I40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22" t="str">
+        <f>CONCATENATE("( ",J40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22" t="str">
+        <f>CONCATENATE("( ",K40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="22" t="str">
+        <f>CONCATENATE("( ",I4," )")</f>
+        <v>( 0.006996 )</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22" t="str">
+        <f>CONCATENATE("( ",J4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22" t="str">
+        <f>CONCATENATE("( ",K4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24">
+        <v>6.9959999999999996E-3</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="22" t="str">
+        <f>CONCATENATE("( ",I7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="str">
+        <f>CONCATENATE("( ",J7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22" t="str">
+        <f>CONCATENATE("( ",K7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="22" t="str">
+        <f>CONCATENATE("( ",I10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="str">
+        <f>CONCATENATE("( ",J10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22" t="str">
+        <f>CONCATENATE("( ",K10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="22" t="str">
+        <f>CONCATENATE("( ",I13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="str">
+        <f>CONCATENATE("( ",J13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22" t="str">
+        <f>CONCATENATE("( ",K13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="22" t="str">
+        <f>CONCATENATE("( ",I16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="str">
+        <f>CONCATENATE("( ",J16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22" t="str">
+        <f>CONCATENATE("( ",K16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="22" t="str">
+        <f>CONCATENATE("( ",I19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22" t="str">
+        <f>CONCATENATE("( ",J19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22" t="str">
+        <f>CONCATENATE("( ",K19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="22" t="str">
+        <f>CONCATENATE("( ",I22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22" t="str">
+        <f>CONCATENATE("( ",J22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22" t="str">
+        <f>CONCATENATE("( ",K22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="22" t="str">
+        <f>CONCATENATE("( ",I25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="str">
+        <f>CONCATENATE("( ",J25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22" t="str">
+        <f>CONCATENATE("( ",K25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="22" t="str">
+        <f>CONCATENATE("( ",I28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22" t="str">
+        <f>CONCATENATE("( ",J28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22" t="str">
+        <f>CONCATENATE("( ",K28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="22" t="str">
+        <f>CONCATENATE("( ",I31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22" t="str">
+        <f>CONCATENATE("( ",J31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22" t="str">
+        <f>CONCATENATE("( ",K31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="22" t="str">
+        <f>CONCATENATE("( ",I34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22" t="str">
+        <f>CONCATENATE("( ",J34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22" t="str">
+        <f>CONCATENATE("( ",K34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="22" t="str">
+        <f>CONCATENATE("( ",I37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22" t="str">
+        <f>CONCATENATE("( ",J37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22" t="str">
+        <f>CONCATENATE("( ",K37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="22" t="str">
+        <f>CONCATENATE("( ",I40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22" t="str">
+        <f>CONCATENATE("( ",J40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22" t="str">
+        <f>CONCATENATE("( ",K40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/regresiones.xlsx
+++ b/regresiones.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Regresiones principales" sheetId="1" r:id="rId1"/>
     <sheet name="empresas chicas" sheetId="2" r:id="rId2"/>
     <sheet name="empresasMedianas" sheetId="3" r:id="rId3"/>
     <sheet name="empresasGrandes" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="1_alimentos" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="424">
   <si>
     <t>Ejecuciones 6 Meses</t>
   </si>
@@ -946,13 +946,370 @@
   </si>
   <si>
     <t>R2: 0.926</t>
+  </si>
+  <si>
+    <t>0.015044</t>
+  </si>
+  <si>
+    <t>0.002593</t>
+  </si>
+  <si>
+    <t>0.0006326</t>
+  </si>
+  <si>
+    <t>( 0.009941 )</t>
+  </si>
+  <si>
+    <t>( 0.005337 )</t>
+  </si>
+  <si>
+    <t>( 0.0040614 )</t>
+  </si>
+  <si>
+    <t>DF: 36354</t>
+  </si>
+  <si>
+    <t>DF: 31890</t>
+  </si>
+  <si>
+    <t>R2: 0.9869</t>
+  </si>
+  <si>
+    <t>DF: 21333</t>
+  </si>
+  <si>
+    <t>R2: 0.9914</t>
+  </si>
+  <si>
+    <t>0.00493</t>
+  </si>
+  <si>
+    <t>0.00598</t>
+  </si>
+  <si>
+    <t>0.0005523</t>
+  </si>
+  <si>
+    <t>(0.006968)</t>
+  </si>
+  <si>
+    <t>( 0.003993 )</t>
+  </si>
+  <si>
+    <t>( 0.0034417 )</t>
+  </si>
+  <si>
+    <t>R2: 0.97</t>
+  </si>
+  <si>
+    <t>R2: 0.9749</t>
+  </si>
+  <si>
+    <t>R2: 0.9792</t>
+  </si>
+  <si>
+    <t>0.019973 ***</t>
+  </si>
+  <si>
+    <t>0.002918 **</t>
+  </si>
+  <si>
+    <t>0.00008031</t>
+  </si>
+  <si>
+    <t>( 0.005786 )</t>
+  </si>
+  <si>
+    <t>( 0.002918 )</t>
+  </si>
+  <si>
+    <t>( 0.001746 )</t>
+  </si>
+  <si>
+    <t>R2: 0.9851</t>
+  </si>
+  <si>
+    <t>R2: 0.9902</t>
+  </si>
+  <si>
+    <t>R2: 0.996</t>
+  </si>
+  <si>
+    <t>0.003599</t>
+  </si>
+  <si>
+    <t>0.0008212</t>
+  </si>
+  <si>
+    <t>0.001185</t>
+  </si>
+  <si>
+    <t>(0.002402)</t>
+  </si>
+  <si>
+    <t>( 0.001359 )</t>
+  </si>
+  <si>
+    <t>( 0.001095 )</t>
+  </si>
+  <si>
+    <t>R2: 0.9788</t>
+  </si>
+  <si>
+    <t>R2: 0.9826</t>
+  </si>
+  <si>
+    <t>R2: 0.9871</t>
+  </si>
+  <si>
+    <t>0.001057</t>
+  </si>
+  <si>
+    <t>0.0013493</t>
+  </si>
+  <si>
+    <t>0.0011762</t>
+  </si>
+  <si>
+    <t>( 0.001689 )</t>
+  </si>
+  <si>
+    <t>( 0.0009964 )</t>
+  </si>
+  <si>
+    <t>( 0.0008693 )</t>
+  </si>
+  <si>
+    <t>R2: 0.9601</t>
+  </si>
+  <si>
+    <t>R2: 0.9646</t>
+  </si>
+  <si>
+    <t>0.004656 ***</t>
+  </si>
+  <si>
+    <t>0.002171 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000008586   </t>
+  </si>
+  <si>
+    <t>(0.001372)</t>
+  </si>
+  <si>
+    <t>( 0.000741 )</t>
+  </si>
+  <si>
+    <t>( 0.0005225 )</t>
+  </si>
+  <si>
+    <t>R2: 0.9844</t>
+  </si>
+  <si>
+    <t>R2: 0.9882</t>
+  </si>
+  <si>
+    <t>R2: 0.9932</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.1332</t>
+  </si>
+  <si>
+    <t>0.10665</t>
+  </si>
+  <si>
+    <t>( 0.2067 )</t>
+  </si>
+  <si>
+    <t>( 0.113 )</t>
+  </si>
+  <si>
+    <t>( 0.09383 )</t>
+  </si>
+  <si>
+    <t>R2: 0.9672</t>
+  </si>
+  <si>
+    <t>R2: 0.9754</t>
+  </si>
+  <si>
+    <t>R2: 0.982</t>
+  </si>
+  <si>
+    <t>0.26135 **</t>
+  </si>
+  <si>
+    <t>0.12752 *</t>
+  </si>
+  <si>
+    <t>0.002297</t>
+  </si>
+  <si>
+    <t>(0.09109)</t>
+  </si>
+  <si>
+    <t>( 0.05312 )</t>
+  </si>
+  <si>
+    <t>( 0.049165 )</t>
+  </si>
+  <si>
+    <t>R2: 0.8869</t>
+  </si>
+  <si>
+    <t>R2: 0.9028</t>
+  </si>
+  <si>
+    <t>R2: 0.9089</t>
+  </si>
+  <si>
+    <t>0.35785e</t>
+  </si>
+  <si>
+    <t>0.21848e</t>
+  </si>
+  <si>
+    <t>0.05636</t>
+  </si>
+  <si>
+    <t>( 0.08681 )</t>
+  </si>
+  <si>
+    <t>( 0.04949 )</t>
+  </si>
+  <si>
+    <t>( 0.03998 )</t>
+  </si>
+  <si>
+    <t>R2: 0.9791</t>
+  </si>
+  <si>
+    <t>R2: 0.983</t>
+  </si>
+  <si>
+    <t>R2: 0.9884</t>
+  </si>
+  <si>
+    <t>1.3982 *</t>
+  </si>
+  <si>
+    <t>0.7357 .</t>
+  </si>
+  <si>
+    <t>0.5257</t>
+  </si>
+  <si>
+    <t>( 0.6558 )</t>
+  </si>
+  <si>
+    <t>( 0.399 )</t>
+  </si>
+  <si>
+    <t>( 0.3479 )</t>
+  </si>
+  <si>
+    <t>DF: 32418</t>
+  </si>
+  <si>
+    <t>R2: 0.8849</t>
+  </si>
+  <si>
+    <t>DF: 28399</t>
+  </si>
+  <si>
+    <t>R2: 0.8994</t>
+  </si>
+  <si>
+    <t>DF: 18931</t>
+  </si>
+  <si>
+    <t>R2: 0.9252</t>
+  </si>
+  <si>
+    <t>6.243 .</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>2.689</t>
+  </si>
+  <si>
+    <t>( 3.611 )</t>
+  </si>
+  <si>
+    <t>( 2.27 )</t>
+  </si>
+  <si>
+    <t>( 2.207 )</t>
+  </si>
+  <si>
+    <t>R2: 0.931</t>
+  </si>
+  <si>
+    <t>R2: 0.9346</t>
+  </si>
+  <si>
+    <t>1.2249</t>
+  </si>
+  <si>
+    <t>0.779 *</t>
+  </si>
+  <si>
+    <t>0.3036 .</t>
+  </si>
+  <si>
+    <t>( 0.5865 )</t>
+  </si>
+  <si>
+    <t>( 0.3498 )</t>
+  </si>
+  <si>
+    <t>( 0.3036 )</t>
+  </si>
+  <si>
+    <t>R2: 0.9052</t>
+  </si>
+  <si>
+    <t>R2: 0.9203</t>
+  </si>
+  <si>
+    <t>R2: 0.9416</t>
+  </si>
+  <si>
+    <t>5.164 .</t>
+  </si>
+  <si>
+    <t>3.668 *</t>
+  </si>
+  <si>
+    <t>2.554</t>
+  </si>
+  <si>
+    <t>( 1.828 )</t>
+  </si>
+  <si>
+    <t>( 1.681 )</t>
+  </si>
+  <si>
+    <t>R2: 0.951</t>
+  </si>
+  <si>
+    <t>R2: 0.9546</t>
+  </si>
+  <si>
+    <t>R2: 0.96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +1328,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1137,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1149,11 +1513,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1161,17 +1539,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1180,9 +1549,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1194,8 +1560,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,53 +1879,53 @@
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>6.4110000000000002E-4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1559,41 +1946,41 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>2.6779999999999998E-3</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1614,39 +2001,39 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1667,39 +2054,39 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1720,39 +2107,39 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
@@ -1773,39 +2160,39 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
@@ -1826,39 +2213,39 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1879,39 +2266,39 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1932,39 +2319,39 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1985,39 +2372,39 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
@@ -2038,39 +2425,39 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2091,39 +2478,39 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
@@ -2144,39 +2531,39 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2201,59 +2588,30 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -2270,31 +2628,60 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2305,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G40" sqref="G40:H40"/>
     </sheetView>
   </sheetViews>
@@ -2317,53 +2704,53 @@
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>182</v>
       </c>
@@ -2384,39 +2771,39 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>182</v>
       </c>
@@ -2437,39 +2824,39 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>182</v>
       </c>
@@ -2490,39 +2877,39 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>182</v>
       </c>
@@ -2543,39 +2930,39 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>182</v>
       </c>
@@ -2596,39 +2983,39 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
         <v>182</v>
       </c>
@@ -2649,39 +3036,39 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>182</v>
       </c>
@@ -2702,39 +3089,39 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
         <v>182</v>
       </c>
@@ -2755,39 +3142,39 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>182</v>
       </c>
@@ -2808,39 +3195,39 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
         <v>143</v>
       </c>
@@ -2862,39 +3249,39 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3" t="s">
         <v>143</v>
       </c>
@@ -2915,39 +3302,39 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3" t="s">
         <v>143</v>
       </c>
@@ -2968,39 +3355,39 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
         <v>143</v>
       </c>
@@ -3021,18 +3408,98 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="B39:B41"/>
@@ -3048,86 +3515,6 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3150,65 +3537,65 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="str">
+      <c r="B4" s="21"/>
+      <c r="C4" s="24" t="str">
         <f>CONCATENATE("( ",I4," )")</f>
         <v>( 0.006996 )</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="str">
+      <c r="D4" s="25"/>
+      <c r="E4" s="24" t="str">
         <f>CONCATENATE("( ",J4," )")</f>
         <v>( 0.004408 )</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22" t="str">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="str">
         <f>CONCATENATE("( ",K4," )")</f>
         <v>( 0.004022 )</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24">
+      <c r="H4" s="25"/>
+      <c r="I4" s="9">
         <v>6.9959999999999996E-3</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="9">
         <v>4.4079999999999996E-3</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="9">
         <v>4.0220000000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>281</v>
       </c>
@@ -3229,51 +3616,51 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="22" t="str">
+      <c r="B7" s="13"/>
+      <c r="C7" s="24" t="str">
         <f>CONCATENATE("( ",I7," )")</f>
         <v>( 0.005621 )</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22" t="str">
+      <c r="D7" s="25"/>
+      <c r="E7" s="24" t="str">
         <f>CONCATENATE("( ",J7," )")</f>
         <v>( 0.003513 )</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22" t="str">
+      <c r="F7" s="25"/>
+      <c r="G7" s="24" t="str">
         <f>CONCATENATE("( ",K7," )")</f>
         <v>( 0.0031125 )</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24">
+      <c r="H7" s="25"/>
+      <c r="I7" s="9">
         <v>5.6210000000000001E-3</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="9">
         <v>3.5130000000000001E-3</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="9">
         <v>3.1124999999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>281</v>
       </c>
@@ -3294,51 +3681,51 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="22" t="str">
+      <c r="B10" s="13"/>
+      <c r="C10" s="24" t="str">
         <f>CONCATENATE("( ",I10," )")</f>
         <v>( 0.002122 )</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22" t="str">
+      <c r="D10" s="25"/>
+      <c r="E10" s="24" t="str">
         <f>CONCATENATE("( ",J10," )")</f>
         <v>( 0.001311 )</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22" t="str">
+      <c r="F10" s="25"/>
+      <c r="G10" s="24" t="str">
         <f>CONCATENATE("( ",K10," )")</f>
         <v>( 0.001196 )</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24">
+      <c r="H10" s="25"/>
+      <c r="I10" s="9">
         <v>2.1220000000000002E-3</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="9">
         <v>1.3110000000000001E-3</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="9">
         <v>1.196E-3</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>281</v>
       </c>
@@ -3359,51 +3746,51 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="22" t="str">
+      <c r="B13" s="13"/>
+      <c r="C13" s="24" t="str">
         <f>CONCATENATE("( ",I13," )")</f>
         <v>( 0.00158 )</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="str">
+      <c r="D13" s="25"/>
+      <c r="E13" s="24" t="str">
         <f>CONCATENATE("( ",J13," )")</f>
         <v>( 0.000987 )</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22" t="str">
+      <c r="F13" s="25"/>
+      <c r="G13" s="24" t="str">
         <f>CONCATENATE("( ",K13," )")</f>
         <v>( 0.0009002 )</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24">
+      <c r="H13" s="25"/>
+      <c r="I13" s="9">
         <v>1.58E-3</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="9">
         <v>9.8700000000000003E-4</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="9">
         <v>9.0019999999999998E-4</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>281</v>
       </c>
@@ -3424,51 +3811,51 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="22" t="str">
+      <c r="B16" s="13"/>
+      <c r="C16" s="24" t="str">
         <f>CONCATENATE("( ",I16," )")</f>
         <v>( 0.0012905 )</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22" t="str">
+      <c r="D16" s="25"/>
+      <c r="E16" s="24" t="str">
         <f>CONCATENATE("( ",J16," )")</f>
         <v>( 0.0007995 )</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22" t="str">
+      <c r="F16" s="25"/>
+      <c r="G16" s="24" t="str">
         <f>CONCATENATE("( ",K16," )")</f>
         <v>( 0.0007143 )</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24">
+      <c r="H16" s="25"/>
+      <c r="I16" s="9">
         <v>1.2905E-3</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="9">
         <v>7.9949999999999997E-4</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="10">
         <v>7.1429999999999996E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>281</v>
       </c>
@@ -3489,51 +3876,51 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="22" t="str">
+      <c r="B19" s="13"/>
+      <c r="C19" s="24" t="str">
         <f>CONCATENATE("( ",I19," )")</f>
         <v>( 0.0004563 )</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22" t="str">
+      <c r="D19" s="25"/>
+      <c r="E19" s="24" t="str">
         <f>CONCATENATE("( ",J19," )")</f>
         <v>( 0.0002798 )</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22" t="str">
+      <c r="F19" s="25"/>
+      <c r="G19" s="24" t="str">
         <f>CONCATENATE("( ",K19," )")</f>
         <v>( 0.0002547 )</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24">
+      <c r="H19" s="25"/>
+      <c r="I19" s="9">
         <v>4.5629999999999998E-4</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="9">
         <v>2.7980000000000002E-4</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="9">
         <v>2.5470000000000001E-4</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
         <v>281</v>
       </c>
@@ -3554,51 +3941,51 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="22" t="str">
+      <c r="B22" s="13"/>
+      <c r="C22" s="24" t="str">
         <f>CONCATENATE("( ",I22," )")</f>
         <v>( 0.1329 )</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22" t="str">
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="str">
         <f>CONCATENATE("( ",J22," )")</f>
         <v>( 0.083109 )</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22" t="str">
+      <c r="F22" s="25"/>
+      <c r="G22" s="24" t="str">
         <f>CONCATENATE("( ",K22," )")</f>
         <v>( 0.07543 )</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24">
+      <c r="H22" s="25"/>
+      <c r="I22" s="9">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="9">
         <v>8.3109000000000002E-2</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="9">
         <v>7.5429999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>281</v>
       </c>
@@ -3619,51 +4006,51 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="22" t="str">
+      <c r="B25" s="13"/>
+      <c r="C25" s="24" t="str">
         <f>CONCATENATE("( ",I25," )")</f>
         <v>( 0.06202 )</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22" t="str">
+      <c r="D25" s="25"/>
+      <c r="E25" s="24" t="str">
         <f>CONCATENATE("( ",J25," )")</f>
         <v>( 0.03928 )</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22" t="str">
+      <c r="F25" s="25"/>
+      <c r="G25" s="24" t="str">
         <f>CONCATENATE("( ",K25," )")</f>
         <v>( 0.03771 )</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24">
+      <c r="H25" s="25"/>
+      <c r="I25" s="9">
         <v>6.2019999999999999E-2</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="9">
         <v>3.9280000000000002E-2</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="9">
         <v>3.771E-2</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
         <v>281</v>
       </c>
@@ -3684,51 +4071,51 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="22" t="str">
+      <c r="B28" s="13"/>
+      <c r="C28" s="24" t="str">
         <f>CONCATENATE("( ",I28," )")</f>
         <v>( 0.063309 )</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="str">
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="str">
         <f>CONCATENATE("( ",J28," )")</f>
         <v>( 0.03862 )</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22" t="str">
+      <c r="F28" s="25"/>
+      <c r="G28" s="24" t="str">
         <f>CONCATENATE("( ",K28," )")</f>
         <v>( 0.03239 )</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24">
+      <c r="H28" s="25"/>
+      <c r="I28" s="9">
         <v>6.3309000000000004E-2</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="9">
         <v>3.8620000000000002E-2</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="9">
         <v>3.2390000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>281</v>
       </c>
@@ -3749,51 +4136,51 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="22" t="str">
+      <c r="B31" s="13"/>
+      <c r="C31" s="24" t="str">
         <f>CONCATENATE("( ",I31," )")</f>
         <v>( 19.9542 )</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22" t="str">
+      <c r="D31" s="25"/>
+      <c r="E31" s="24" t="str">
         <f>CONCATENATE("( ",J31," )")</f>
         <v>( 13.126 )</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22" t="str">
+      <c r="F31" s="25"/>
+      <c r="G31" s="24" t="str">
         <f>CONCATENATE("( ",K31," )")</f>
         <v>( 14.489 )</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24">
+      <c r="H31" s="25"/>
+      <c r="I31" s="9">
         <v>19.9542</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="9">
         <v>13.125999999999999</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="9">
         <v>14.489000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
         <v>267</v>
       </c>
@@ -3814,51 +4201,51 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="22" t="str">
+      <c r="B34" s="13"/>
+      <c r="C34" s="24" t="str">
         <f>CONCATENATE("( ",I34," )")</f>
         <v>( 4.475 )</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22" t="str">
+      <c r="D34" s="25"/>
+      <c r="E34" s="24" t="str">
         <f>CONCATENATE("( ",J34," )")</f>
         <v>( 3.039 )</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22" t="str">
+      <c r="F34" s="25"/>
+      <c r="G34" s="24" t="str">
         <f>CONCATENATE("( ",K34," )")</f>
         <v>( 3.017 )</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24">
+      <c r="H34" s="25"/>
+      <c r="I34" s="9">
         <v>4.4749999999999996</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="9">
         <v>3.0390000000000001</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="9">
         <v>3.0169999999999999</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3" t="s">
         <v>267</v>
       </c>
@@ -3879,51 +4266,51 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="22" t="str">
+      <c r="B37" s="13"/>
+      <c r="C37" s="24" t="str">
         <f>CONCATENATE("( ",I37," )")</f>
         <v>( 20.2102 )</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="str">
+      <c r="D37" s="25"/>
+      <c r="E37" s="24" t="str">
         <f>CONCATENATE("( ",J37," )")</f>
         <v>( 13.3 )</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22" t="str">
+      <c r="F37" s="25"/>
+      <c r="G37" s="24" t="str">
         <f>CONCATENATE("( ",K37," )")</f>
         <v>( 14.477 )</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24">
+      <c r="H37" s="25"/>
+      <c r="I37" s="9">
         <v>20.2102</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="9">
         <v>13.3</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="9">
         <v>14.477</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3" t="s">
         <v>267</v>
       </c>
@@ -3944,51 +4331,51 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="22" t="str">
+      <c r="B40" s="13"/>
+      <c r="C40" s="24" t="str">
         <f>CONCATENATE("( ",I40," )")</f>
         <v>( 4.196 )</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22" t="str">
+      <c r="D40" s="25"/>
+      <c r="E40" s="24" t="str">
         <f>CONCATENATE("( ",J40," )")</f>
         <v>( 2.848 )</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22" t="str">
+      <c r="F40" s="25"/>
+      <c r="G40" s="24" t="str">
         <f>CONCATENATE("( ",K40," )")</f>
         <v>( 2.767 )</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24">
+      <c r="H40" s="25"/>
+      <c r="I40" s="9">
         <v>4.1959999999999997</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="9">
         <v>2.8479999999999999</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="9">
         <v>2.7669999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
         <v>267</v>
       </c>
@@ -4009,1504 +4396,19 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K41"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="str">
-        <f>CONCATENATE("( ",I4," )")</f>
-        <v>( 0.006996 )</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="str">
-        <f>CONCATENATE("( ",J4," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22" t="str">
-        <f>CONCATENATE("( ",K4," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24">
-        <v>6.9959999999999996E-3</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="22" t="str">
-        <f>CONCATENATE("( ",I7," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22" t="str">
-        <f>CONCATENATE("( ",J7," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22" t="str">
-        <f>CONCATENATE("( ",K7," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="22" t="str">
-        <f>CONCATENATE("( ",I10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22" t="str">
-        <f>CONCATENATE("( ",J10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22" t="str">
-        <f>CONCATENATE("( ",K10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="22" t="str">
-        <f>CONCATENATE("( ",I13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="str">
-        <f>CONCATENATE("( ",J13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22" t="str">
-        <f>CONCATENATE("( ",K13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="22" t="str">
-        <f>CONCATENATE("( ",I16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22" t="str">
-        <f>CONCATENATE("( ",J16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22" t="str">
-        <f>CONCATENATE("( ",K16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="22" t="str">
-        <f>CONCATENATE("( ",I19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22" t="str">
-        <f>CONCATENATE("( ",J19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22" t="str">
-        <f>CONCATENATE("( ",K19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="22" t="str">
-        <f>CONCATENATE("( ",I22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22" t="str">
-        <f>CONCATENATE("( ",J22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22" t="str">
-        <f>CONCATENATE("( ",K22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="22" t="str">
-        <f>CONCATENATE("( ",I25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22" t="str">
-        <f>CONCATENATE("( ",J25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22" t="str">
-        <f>CONCATENATE("( ",K25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="22" t="str">
-        <f>CONCATENATE("( ",I28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="str">
-        <f>CONCATENATE("( ",J28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22" t="str">
-        <f>CONCATENATE("( ",K28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="22" t="str">
-        <f>CONCATENATE("( ",I31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22" t="str">
-        <f>CONCATENATE("( ",J31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22" t="str">
-        <f>CONCATENATE("( ",K31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="22" t="str">
-        <f>CONCATENATE("( ",I34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22" t="str">
-        <f>CONCATENATE("( ",J34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22" t="str">
-        <f>CONCATENATE("( ",K34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="22" t="str">
-        <f>CONCATENATE("( ",I37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="str">
-        <f>CONCATENATE("( ",J37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22" t="str">
-        <f>CONCATENATE("( ",K37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="22" t="str">
-        <f>CONCATENATE("( ",I40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22" t="str">
-        <f>CONCATENATE("( ",J40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22" t="str">
-        <f>CONCATENATE("( ",K40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="str">
-        <f>CONCATENATE("( ",I4," )")</f>
-        <v>( 0.006996 )</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="str">
-        <f>CONCATENATE("( ",J4," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22" t="str">
-        <f>CONCATENATE("( ",K4," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24">
-        <v>6.9959999999999996E-3</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="22" t="str">
-        <f>CONCATENATE("( ",I7," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22" t="str">
-        <f>CONCATENATE("( ",J7," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22" t="str">
-        <f>CONCATENATE("( ",K7," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="22" t="str">
-        <f>CONCATENATE("( ",I10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22" t="str">
-        <f>CONCATENATE("( ",J10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22" t="str">
-        <f>CONCATENATE("( ",K10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="22" t="str">
-        <f>CONCATENATE("( ",I13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="str">
-        <f>CONCATENATE("( ",J13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22" t="str">
-        <f>CONCATENATE("( ",K13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="22" t="str">
-        <f>CONCATENATE("( ",I16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22" t="str">
-        <f>CONCATENATE("( ",J16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22" t="str">
-        <f>CONCATENATE("( ",K16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="22" t="str">
-        <f>CONCATENATE("( ",I19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22" t="str">
-        <f>CONCATENATE("( ",J19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22" t="str">
-        <f>CONCATENATE("( ",K19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="22" t="str">
-        <f>CONCATENATE("( ",I22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22" t="str">
-        <f>CONCATENATE("( ",J22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22" t="str">
-        <f>CONCATENATE("( ",K22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="22" t="str">
-        <f>CONCATENATE("( ",I25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22" t="str">
-        <f>CONCATENATE("( ",J25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22" t="str">
-        <f>CONCATENATE("( ",K25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="22" t="str">
-        <f>CONCATENATE("( ",I28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="str">
-        <f>CONCATENATE("( ",J28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22" t="str">
-        <f>CONCATENATE("( ",K28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="22" t="str">
-        <f>CONCATENATE("( ",I31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22" t="str">
-        <f>CONCATENATE("( ",J31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22" t="str">
-        <f>CONCATENATE("( ",K31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="22" t="str">
-        <f>CONCATENATE("( ",I34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22" t="str">
-        <f>CONCATENATE("( ",J34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22" t="str">
-        <f>CONCATENATE("( ",K34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="22" t="str">
-        <f>CONCATENATE("( ",I37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="str">
-        <f>CONCATENATE("( ",J37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22" t="str">
-        <f>CONCATENATE("( ",K37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="22" t="str">
-        <f>CONCATENATE("( ",I40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22" t="str">
-        <f>CONCATENATE("( ",J40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22" t="str">
-        <f>CONCATENATE("( ",K40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="94">
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
@@ -5603,14 +4505,15 @@
     <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K41"/>
     </sheetView>
   </sheetViews>
@@ -5619,57 +4522,57 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="str">
+      <c r="B4" s="21"/>
+      <c r="C4" s="24" t="str">
         <f>CONCATENATE("( ",I4," )")</f>
         <v>( 0.006996 )</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="str">
+      <c r="D4" s="25"/>
+      <c r="E4" s="24" t="str">
         <f>CONCATENATE("( ",J4," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22" t="str">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="str">
         <f>CONCATENATE("( ",K4," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24">
+      <c r="H4" s="25"/>
+      <c r="I4" s="9">
         <v>6.9959999999999996E-3</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
         <v>181</v>
@@ -5684,39 +4587,39 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="22" t="str">
+      <c r="B7" s="13"/>
+      <c r="C7" s="24" t="str">
         <f>CONCATENATE("( ",I7," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22" t="str">
+      <c r="D7" s="25"/>
+      <c r="E7" s="24" t="str">
         <f>CONCATENATE("( ",J7," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22" t="str">
+      <c r="F7" s="25"/>
+      <c r="G7" s="24" t="str">
         <f>CONCATENATE("( ",K7," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
         <v>100</v>
@@ -5731,524 +4634,1355 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="24" t="str">
+        <f>CONCATENATE("( ",I10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24" t="str">
+        <f>CONCATENATE("( ",J10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24" t="str">
+        <f>CONCATENATE("( ",K10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="24" t="str">
+        <f>CONCATENATE("( ",I13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24" t="str">
+        <f>CONCATENATE("( ",J13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24" t="str">
+        <f>CONCATENATE("( ",K13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="24" t="str">
+        <f>CONCATENATE("( ",I16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24" t="str">
+        <f>CONCATENATE("( ",J16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24" t="str">
+        <f>CONCATENATE("( ",K16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="24" t="str">
+        <f>CONCATENATE("( ",I19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24" t="str">
+        <f>CONCATENATE("( ",J19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24" t="str">
+        <f>CONCATENATE("( ",K19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="24" t="str">
+        <f>CONCATENATE("( ",I22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="str">
+        <f>CONCATENATE("( ",J22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24" t="str">
+        <f>CONCATENATE("( ",K22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="24" t="str">
+        <f>CONCATENATE("( ",I25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24" t="str">
+        <f>CONCATENATE("( ",J25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24" t="str">
+        <f>CONCATENATE("( ",K25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="24" t="str">
+        <f>CONCATENATE("( ",I28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="str">
+        <f>CONCATENATE("( ",J28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="24" t="str">
+        <f>CONCATENATE("( ",K28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="24" t="str">
+        <f>CONCATENATE("( ",I31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24" t="str">
+        <f>CONCATENATE("( ",J31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24" t="str">
+        <f>CONCATENATE("( ",K31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="24" t="str">
+        <f>CONCATENATE("( ",I34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24" t="str">
+        <f>CONCATENATE("( ",J34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="24" t="str">
+        <f>CONCATENATE("( ",K34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="24" t="str">
+        <f>CONCATENATE("( ",I37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24" t="str">
+        <f>CONCATENATE("( ",J37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24" t="str">
+        <f>CONCATENATE("( ",K37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="24" t="str">
+        <f>CONCATENATE("( ",I40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="24" t="str">
+        <f>CONCATENATE("( ",J40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24" t="str">
+        <f>CONCATENATE("( ",K40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="22" t="str">
-        <f>CONCATENATE("( ",I10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22" t="str">
-        <f>CONCATENATE("( ",J10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22" t="str">
-        <f>CONCATENATE("( ",K10," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="C9" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="22" t="str">
-        <f>CONCATENATE("( ",I13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="str">
-        <f>CONCATENATE("( ",J13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22" t="str">
-        <f>CONCATENATE("( ",K13," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="22" t="str">
-        <f>CONCATENATE("( ",I16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22" t="str">
-        <f>CONCATENATE("( ",J16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22" t="str">
-        <f>CONCATENATE("( ",K16," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="C15" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="22" t="str">
-        <f>CONCATENATE("( ",I19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22" t="str">
-        <f>CONCATENATE("( ",J19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22" t="str">
-        <f>CONCATENATE("( ",K19," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="22" t="str">
-        <f>CONCATENATE("( ",I22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22" t="str">
-        <f>CONCATENATE("( ",J22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22" t="str">
-        <f>CONCATENATE("( ",K22," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="22" t="str">
-        <f>CONCATENATE("( ",I25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22" t="str">
-        <f>CONCATENATE("( ",J25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22" t="str">
-        <f>CONCATENATE("( ",K25," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="22" t="str">
-        <f>CONCATENATE("( ",I28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="str">
-        <f>CONCATENATE("( ",J28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22" t="str">
-        <f>CONCATENATE("( ",K28," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="C27" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="C28" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="22"/>
+      <c r="C29" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="22" t="str">
-        <f>CONCATENATE("( ",I31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22" t="str">
-        <f>CONCATENATE("( ",J31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22" t="str">
-        <f>CONCATENATE("( ",K31," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="C30" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="21"/>
+      <c r="C31" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="22"/>
+      <c r="C32" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="22" t="str">
-        <f>CONCATENATE("( ",I34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22" t="str">
-        <f>CONCATENATE("( ",J34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22" t="str">
-        <f>CONCATENATE("( ",K34," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="C33" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="22"/>
+      <c r="C35" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="22" t="str">
-        <f>CONCATENATE("( ",I37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="str">
-        <f>CONCATENATE("( ",J37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22" t="str">
-        <f>CONCATENATE("( ",K37," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="C36" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="22"/>
+      <c r="C38" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="22" t="str">
-        <f>CONCATENATE("( ",I40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22" t="str">
-        <f>CONCATENATE("( ",J40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22" t="str">
-        <f>CONCATENATE("( ",K40," )")</f>
-        <v>(  )</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="C39" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+      <c r="C40" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="22"/>
+      <c r="C41" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="95">
+    <mergeCell ref="B42:H42"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
@@ -6319,6 +6053,8 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -6326,13 +6062,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -6343,6 +6072,753 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="24" t="str">
+        <f>CONCATENATE("( ",I4," )")</f>
+        <v>( 0.006996 )</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24" t="str">
+        <f>CONCATENATE("( ",J4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="str">
+        <f>CONCATENATE("( ",K4," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="9">
+        <v>6.9959999999999996E-3</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="24" t="str">
+        <f>CONCATENATE("( ",I7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24" t="str">
+        <f>CONCATENATE("( ",J7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24" t="str">
+        <f>CONCATENATE("( ",K7," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="24" t="str">
+        <f>CONCATENATE("( ",I10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24" t="str">
+        <f>CONCATENATE("( ",J10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24" t="str">
+        <f>CONCATENATE("( ",K10," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="24" t="str">
+        <f>CONCATENATE("( ",I13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24" t="str">
+        <f>CONCATENATE("( ",J13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24" t="str">
+        <f>CONCATENATE("( ",K13," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="24" t="str">
+        <f>CONCATENATE("( ",I16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24" t="str">
+        <f>CONCATENATE("( ",J16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24" t="str">
+        <f>CONCATENATE("( ",K16," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="24" t="str">
+        <f>CONCATENATE("( ",I19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24" t="str">
+        <f>CONCATENATE("( ",J19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24" t="str">
+        <f>CONCATENATE("( ",K19," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="24" t="str">
+        <f>CONCATENATE("( ",I22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="str">
+        <f>CONCATENATE("( ",J22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24" t="str">
+        <f>CONCATENATE("( ",K22," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="24" t="str">
+        <f>CONCATENATE("( ",I25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24" t="str">
+        <f>CONCATENATE("( ",J25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24" t="str">
+        <f>CONCATENATE("( ",K25," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="24" t="str">
+        <f>CONCATENATE("( ",I28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="str">
+        <f>CONCATENATE("( ",J28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="24" t="str">
+        <f>CONCATENATE("( ",K28," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="24" t="str">
+        <f>CONCATENATE("( ",I31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24" t="str">
+        <f>CONCATENATE("( ",J31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24" t="str">
+        <f>CONCATENATE("( ",K31," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="24" t="str">
+        <f>CONCATENATE("( ",I34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24" t="str">
+        <f>CONCATENATE("( ",J34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="24" t="str">
+        <f>CONCATENATE("( ",K34," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="24" t="str">
+        <f>CONCATENATE("( ",I37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24" t="str">
+        <f>CONCATENATE("( ",J37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24" t="str">
+        <f>CONCATENATE("( ",K37," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="24" t="str">
+        <f>CONCATENATE("( ",I40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="24" t="str">
+        <f>CONCATENATE("( ",J40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24" t="str">
+        <f>CONCATENATE("( ",K40," )")</f>
+        <v>(  )</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6361,57 +6837,57 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="str">
+      <c r="B4" s="21"/>
+      <c r="C4" s="24" t="str">
         <f>CONCATENATE("( ",I4," )")</f>
         <v>( 0.006996 )</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="str">
+      <c r="D4" s="25"/>
+      <c r="E4" s="24" t="str">
         <f>CONCATENATE("( ",J4," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22" t="str">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="str">
         <f>CONCATENATE("( ",K4," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24">
+      <c r="H4" s="25"/>
+      <c r="I4" s="9">
         <v>6.9959999999999996E-3</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
         <v>181</v>
@@ -6426,39 +6902,39 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="22" t="str">
+      <c r="B7" s="13"/>
+      <c r="C7" s="24" t="str">
         <f>CONCATENATE("( ",I7," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22" t="str">
+      <c r="D7" s="25"/>
+      <c r="E7" s="24" t="str">
         <f>CONCATENATE("( ",J7," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22" t="str">
+      <c r="F7" s="25"/>
+      <c r="G7" s="24" t="str">
         <f>CONCATENATE("( ",K7," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
         <v>100</v>
@@ -6473,39 +6949,39 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="22" t="str">
+      <c r="B10" s="13"/>
+      <c r="C10" s="24" t="str">
         <f>CONCATENATE("( ",I10," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22" t="str">
+      <c r="D10" s="25"/>
+      <c r="E10" s="24" t="str">
         <f>CONCATENATE("( ",J10," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22" t="str">
+      <c r="F10" s="25"/>
+      <c r="G10" s="24" t="str">
         <f>CONCATENATE("( ",K10," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
         <v>100</v>
@@ -6520,39 +6996,39 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="22" t="str">
+      <c r="B13" s="13"/>
+      <c r="C13" s="24" t="str">
         <f>CONCATENATE("( ",I13," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="str">
+      <c r="D13" s="25"/>
+      <c r="E13" s="24" t="str">
         <f>CONCATENATE("( ",J13," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22" t="str">
+      <c r="F13" s="25"/>
+      <c r="G13" s="24" t="str">
         <f>CONCATENATE("( ",K13," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>100</v>
@@ -6567,39 +7043,39 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="22" t="str">
+      <c r="B16" s="13"/>
+      <c r="C16" s="24" t="str">
         <f>CONCATENATE("( ",I16," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22" t="str">
+      <c r="D16" s="25"/>
+      <c r="E16" s="24" t="str">
         <f>CONCATENATE("( ",J16," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22" t="str">
+      <c r="F16" s="25"/>
+      <c r="G16" s="24" t="str">
         <f>CONCATENATE("( ",K16," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
         <v>100</v>
@@ -6614,39 +7090,39 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="22" t="str">
+      <c r="B19" s="13"/>
+      <c r="C19" s="24" t="str">
         <f>CONCATENATE("( ",I19," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22" t="str">
+      <c r="D19" s="25"/>
+      <c r="E19" s="24" t="str">
         <f>CONCATENATE("( ",J19," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22" t="str">
+      <c r="F19" s="25"/>
+      <c r="G19" s="24" t="str">
         <f>CONCATENATE("( ",K19," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
         <v>100</v>
@@ -6661,39 +7137,39 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="22" t="str">
+      <c r="B22" s="13"/>
+      <c r="C22" s="24" t="str">
         <f>CONCATENATE("( ",I22," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22" t="str">
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="str">
         <f>CONCATENATE("( ",J22," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22" t="str">
+      <c r="F22" s="25"/>
+      <c r="G22" s="24" t="str">
         <f>CONCATENATE("( ",K22," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
         <v>100</v>
@@ -6708,39 +7184,39 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="22" t="str">
+      <c r="B25" s="13"/>
+      <c r="C25" s="24" t="str">
         <f>CONCATENATE("( ",I25," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22" t="str">
+      <c r="D25" s="25"/>
+      <c r="E25" s="24" t="str">
         <f>CONCATENATE("( ",J25," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22" t="str">
+      <c r="F25" s="25"/>
+      <c r="G25" s="24" t="str">
         <f>CONCATENATE("( ",K25," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
         <v>100</v>
@@ -6755,39 +7231,39 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="22" t="str">
+      <c r="B28" s="13"/>
+      <c r="C28" s="24" t="str">
         <f>CONCATENATE("( ",I28," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="str">
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="str">
         <f>CONCATENATE("( ",J28," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22" t="str">
+      <c r="F28" s="25"/>
+      <c r="G28" s="24" t="str">
         <f>CONCATENATE("( ",K28," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
         <v>100</v>
@@ -6802,39 +7278,39 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="22" t="str">
+      <c r="B31" s="13"/>
+      <c r="C31" s="24" t="str">
         <f>CONCATENATE("( ",I31," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22" t="str">
+      <c r="D31" s="25"/>
+      <c r="E31" s="24" t="str">
         <f>CONCATENATE("( ",J31," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22" t="str">
+      <c r="F31" s="25"/>
+      <c r="G31" s="24" t="str">
         <f>CONCATENATE("( ",K31," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
         <v>100</v>
@@ -6849,39 +7325,39 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="22" t="str">
+      <c r="B34" s="13"/>
+      <c r="C34" s="24" t="str">
         <f>CONCATENATE("( ",I34," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22" t="str">
+      <c r="D34" s="25"/>
+      <c r="E34" s="24" t="str">
         <f>CONCATENATE("( ",J34," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22" t="str">
+      <c r="F34" s="25"/>
+      <c r="G34" s="24" t="str">
         <f>CONCATENATE("( ",K34," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
         <v>100</v>
@@ -6896,39 +7372,39 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="22" t="str">
+      <c r="B37" s="13"/>
+      <c r="C37" s="24" t="str">
         <f>CONCATENATE("( ",I37," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="str">
+      <c r="D37" s="25"/>
+      <c r="E37" s="24" t="str">
         <f>CONCATENATE("( ",J37," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22" t="str">
+      <c r="F37" s="25"/>
+      <c r="G37" s="24" t="str">
         <f>CONCATENATE("( ",K37," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
         <v>100</v>
@@ -6943,39 +7419,39 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="22" t="str">
+      <c r="B40" s="13"/>
+      <c r="C40" s="24" t="str">
         <f>CONCATENATE("( ",I40," )")</f>
         <v>(  )</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22" t="str">
+      <c r="D40" s="25"/>
+      <c r="E40" s="24" t="str">
         <f>CONCATENATE("( ",J40," )")</f>
         <v>(  )</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22" t="str">
+      <c r="F40" s="25"/>
+      <c r="G40" s="24" t="str">
         <f>CONCATENATE("( ",K40," )")</f>
         <v>(  )</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
         <v>100</v>
@@ -6991,90 +7467,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -7085,6 +7477,90 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
